--- a/prices/^xauusd_price-history-10-08-2023.xlsx
+++ b/prices/^xauusd_price-history-10-08-2023.xlsx
@@ -753,7 +753,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -879,31 +879,31 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>1828.02</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>1830.64</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>1816.07</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>1823.36</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="5">
         <v>-4.88</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="5">
         <v>5472</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="5" t="str">
         <f t="shared" ref="I5:I65" si="0">IF(F3&gt;0,"Buy","Sell")</f>
         <v>Sell</v>
       </c>
